--- a/data/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
+++ b/data/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -752,7 +752,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -814,7 +814,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -845,7 +845,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -9797,7 +9797,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -11720,7 +11720,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -12974,7 +12974,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -13422,7 +13422,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -13745,7 +13745,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -14554,7 +14554,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -14669,7 +14669,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -14813,7 +14813,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -15068,7 +15068,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -15140,7 +15140,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -15337,7 +15337,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -15814,7 +15814,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -16147,7 +16147,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -16188,7 +16188,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -16229,7 +16229,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -17057,7 +17057,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -17295,7 +17295,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -17519,7 +17519,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -17597,7 +17597,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -17702,7 +17702,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -18000,7 +18000,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -18041,7 +18041,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -18082,7 +18082,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -18540,7 +18540,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -18577,7 +18577,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -18686,7 +18686,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -18920,7 +18920,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -19029,7 +19029,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -19331,7 +19331,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -19409,7 +19409,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -19450,7 +19450,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -19569,7 +19569,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -19606,7 +19606,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -19674,7 +19674,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -19875,7 +19875,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -19980,7 +19980,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -20177,7 +20177,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -20255,7 +20255,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -20323,7 +20323,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -20364,7 +20364,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -20483,7 +20483,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -20629,7 +20629,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -20670,7 +20670,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -20945,7 +20945,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -20982,7 +20982,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -21319,7 +21319,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -21397,7 +21397,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -21516,7 +21516,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -21553,7 +21553,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -21662,7 +21662,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -21699,7 +21699,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -21859,7 +21859,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -21964,7 +21964,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -22005,7 +22005,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -22042,7 +22042,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -22083,7 +22083,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -22161,7 +22161,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -22239,7 +22239,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -22851,7 +22851,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -22997,7 +22997,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -23038,7 +23038,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -23262,7 +23262,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">

--- a/data/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
+++ b/data/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
@@ -67,7 +67,7 @@
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>&lt;0.0100</t>
